--- a/data/jcm.xlsx
+++ b/data/jcm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darrick\Documents\maya\projects\_UE4-Chars\scripts\ai_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darrick\Documents\maya\2020\scripts\aismaya\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74202FF-52A3-47C0-9982-3F0FFA232016}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B83C5B9-90CC-44A0-9271-8D6BBD0BA64E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="19620" windowHeight="14145" xr2:uid="{73DC3889-2236-462C-86ED-3568D2D0EC57}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{73DC3889-2236-462C-86ED-3568D2D0EC57}"/>
   </bookViews>
   <sheets>
     <sheet name="jcm" sheetId="1" r:id="rId1"/>
@@ -544,7 +544,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2E0B82-AB03-4711-B7D0-0A3C74A2BBCA}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AA27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
@@ -553,6 +552,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -562,7 +564,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -645,7 +647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -728,7 +730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -811,7 +813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -894,7 +896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -977,7 +979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1060,7 +1062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1143,7 +1145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1226,7 +1228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1392,7 +1394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1475,7 +1477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1558,7 +1560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1641,7 +1643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1724,7 +1726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1973,7 +1975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -2056,7 +2058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -2222,7 +2224,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="22" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2305,7 +2307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3</v>
       </c>
@@ -2388,7 +2390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
@@ -2471,7 +2473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -2554,7 +2556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
@@ -2637,7 +2639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3</v>
       </c>
@@ -2721,13 +2723,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AA27" xr:uid="{ABB91318-295C-41D6-93D4-C685901C2499}">
-    <filterColumn colId="14">
-      <filters>
-        <filter val="cf_J_LegUp00_L"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AA27" xr:uid="{ABB91318-295C-41D6-93D4-C685901C2499}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>